--- a/Visualizer/valores vacio Nave NIR_ultima.xlsx
+++ b/Visualizer/valores vacio Nave NIR_ultima.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clauw\Documents\Programming\Final-Project\Visualizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D620DC54-0A79-412D-A243-B9571B54F693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409307D9-E7DA-4AF2-BF43-BBB44FAACA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5316" yWindow="1092" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -83,10 +83,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,7 +392,7 @@
   <dimension ref="A1:A192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Visualizer/valores vacio Nave NIR_ultima.xlsx
+++ b/Visualizer/valores vacio Nave NIR_ultima.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clauw\Documents\Programming\Final-Project\Visualizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409307D9-E7DA-4AF2-BF43-BBB44FAACA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2A163F-6D33-4CAC-A0FF-D1520A5016B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5316" yWindow="1092" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -30,7 +43,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -83,10 +96,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,7 +405,7 @@
   <dimension ref="A1:A192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
